--- a/Documentations/Planning.xlsx
+++ b/Documentations/Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7DEDC2-15B7-4BE7-8CE8-905BB2C647C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D044367-6C22-4EEB-88CB-BB7064C7983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning Prévisionnel" sheetId="17" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="task_start" localSheetId="0">'Planning Prévisionnel'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1438,6 +1439,16 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1476,16 +1487,6 @@
     </xf>
     <xf numFmtId="170" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1545,7 +1546,7 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zAusgeblText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="23">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1615,236 +1616,6 @@
           <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1992,15 +1763,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Aufgabenliste" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="49"/>
-      <tableStyleElement type="headerRow" dxfId="48"/>
-      <tableStyleElement type="totalRow" dxfId="47"/>
-      <tableStyleElement type="firstColumn" dxfId="46"/>
-      <tableStyleElement type="lastColumn" dxfId="45"/>
-      <tableStyleElement type="firstRowStripe" dxfId="44"/>
-      <tableStyleElement type="secondRowStripe" dxfId="43"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="42"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="41"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="20"/>
+      <tableStyleElement type="firstColumn" dxfId="19"/>
+      <tableStyleElement type="lastColumn" dxfId="18"/>
+      <tableStyleElement type="firstRowStripe" dxfId="17"/>
+      <tableStyleElement type="secondRowStripe" dxfId="16"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2362,9 +2133,9 @@
   </sheetPr>
   <dimension ref="A1:XFD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2384,19 +2155,19 @@
         <v>15</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="36" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2406,37 +2177,37 @@
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
-      <c r="C4" s="46">
+      <c r="C4" s="50">
         <v>45043</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="45">
         <v>45048</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="45">
         <v>45049</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="45">
         <v>45050</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="45">
         <v>45054</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="45">
         <v>45055</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="45">
         <v>45056</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="45">
         <v>45057</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="45">
         <v>45061</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="45">
         <v>45062</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="45">
         <v>45063</v>
       </c>
     </row>
@@ -2447,17 +2218,17 @@
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -2467,17 +2238,17 @@
         <f>SUM(B7:B7)</f>
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -2509,17 +2280,17 @@
         <f>SUM(B9:B12)</f>
         <v>0.1736111111111111</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -2615,26 +2386,26 @@
       </c>
       <c r="B13" s="19">
         <f>SUM(B14:B30)</f>
-        <v>2.8819444444444442</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
+        <v>2.8819444444444446</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="20">
-        <f t="shared" ref="B14:B30" si="0">SUM(C14:H14)</f>
+        <f t="shared" ref="B14:B29" si="0">SUM(C14:H14)</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C14" s="30">
@@ -2652,7 +2423,7 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="37" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="20">
@@ -2674,7 +2445,7 @@
       <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="20">
@@ -2696,7 +2467,7 @@
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="20">
@@ -2720,7 +2491,7 @@
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="20">
@@ -2742,7 +2513,7 @@
       <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="37" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="20">
@@ -2764,7 +2535,7 @@
       <c r="M19" s="30"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="37" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="20">
@@ -2786,7 +2557,7 @@
       <c r="M20" s="30"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="20">
@@ -2808,7 +2579,7 @@
       <c r="M21" s="30"/>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="20">
@@ -2830,7 +2601,7 @@
       <c r="M22" s="30"/>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="20">
@@ -2852,7 +2623,7 @@
       <c r="M23" s="30"/>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="20">
@@ -2874,7 +2645,7 @@
       <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="20">
@@ -2896,18 +2667,20 @@
       <c r="M25" s="30"/>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="31"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
@@ -2916,7 +2689,7 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="37" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="20">
@@ -2938,7 +2711,7 @@
       <c r="M27" s="30"/>
     </row>
     <row r="28" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="20">
@@ -2960,7 +2733,7 @@
       <c r="M28" s="30"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="20">
@@ -2987,7 +2760,7 @@
       </c>
       <c r="B30" s="20">
         <f>SUM(C30:M30)</f>
-        <v>1.9444444444444442</v>
+        <v>1.9236111111111112</v>
       </c>
       <c r="C30" s="30">
         <v>8.3333333333333329E-2</v>
@@ -3002,7 +2775,7 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="G30" s="30">
-        <v>0.14583333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="H30" s="30">
         <v>0.125</v>
@@ -3031,17 +2804,17 @@
         <f>SUM(B32:B34)</f>
         <v>0.60416666666666674</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="40"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="44"/>
     </row>
     <row r="32" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
@@ -3152,50 +2925,50 @@
     <row r="35" spans="1:15 16384:16384" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="33">
         <f>SUM(B31,B13,B8,B6)</f>
-        <v>3.6666666666666665</v>
+        <v>3.6666666666666674</v>
       </c>
       <c r="C35" s="34">
-        <f>SUM(C7:C7,C9:C12,C14:C30,C32:C34)</f>
+        <f t="shared" ref="C35:M35" si="1">SUM(C7:C7,C9:C12,C14:C30,C32:C34)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D35" s="34">
-        <f>SUM(D7:D7,D9:D12,D14:D30,D32:D34)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E35" s="34">
-        <f>SUM(E7:E7,E9:E12,E14:E30,E32:E34)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F35" s="34">
-        <f>SUM(F7:F7,F9:F12,F14:F30,F32:F34)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G35" s="34">
-        <f>SUM(G7:G7,G9:G12,G14:G30,G32:G34)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H35" s="34">
-        <f>SUM(H7:H7,H9:H12,H14:H30,H32:H34)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="I35" s="34">
-        <f>SUM(I7:I7,I9:I12,I14:I30,I32:I34)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="J35" s="34">
-        <f>SUM(J7:J7,J9:J12,J14:J30,J32:J34)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K35" s="34">
-        <f>SUM(K7:K7,K9:K12,K14:K30,K32:K34)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="L35" s="34">
-        <f>SUM(L7:L7,L9:L12,L14:L30,L32:L34)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M35" s="34">
-        <f>SUM(M7:M7,M9:M12,M14:M30,M32:M34)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="N35" s="26"/>
@@ -3221,37 +2994,37 @@
     <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>88/24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:M7">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="5">
       <formula>LEN(TRIM(C7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:M12">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="4">
       <formula>LEN(TRIM(C9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:M30">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="6">
       <formula>LEN(TRIM(C14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:M34">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="7">
       <formula>LEN(TRIM(C32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:M35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="XFD33">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(XFD33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3274,9 +3047,9 @@
   </sheetPr>
   <dimension ref="A1:XFD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3296,19 +3069,19 @@
         <v>15</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="48" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="36" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3318,37 +3091,37 @@
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
-      <c r="C4" s="46">
+      <c r="C4" s="50">
         <v>45043</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="45">
         <v>45048</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="45">
         <v>45049</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="45">
         <v>45050</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="45">
         <v>45054</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="45">
         <v>45055</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="45">
         <v>45056</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="45">
         <v>45057</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="45">
         <v>45061</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="45">
         <v>45062</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="45">
         <v>45063</v>
       </c>
     </row>
@@ -3359,17 +3132,17 @@
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -3379,17 +3152,17 @@
         <f>SUM(B7:B7)</f>
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -3419,19 +3192,19 @@
       </c>
       <c r="B8" s="17">
         <f>SUM(B9:B12)</f>
-        <v>0.19097222222222224</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
+        <v>0.1701388888888889</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -3505,12 +3278,12 @@
       </c>
       <c r="B12" s="22">
         <f>SUM(C12:H12)</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="C12" s="30">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D12" s="31"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
@@ -3527,26 +3300,26 @@
       </c>
       <c r="B13" s="19">
         <f>SUM(B14:B30)</f>
-        <v>2.8819444444444442</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
+        <v>0.46180555555555552</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="20">
-        <f t="shared" ref="B14:B30" si="0">SUM(C14:H14)</f>
+        <f t="shared" ref="B14:B29" si="0">SUM(C14:H14)</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C14" s="30">
@@ -3564,7 +3337,7 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="37" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="20">
@@ -3586,15 +3359,15 @@
       <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="20">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C16" s="30">
-        <v>3.125E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="30"/>
@@ -3608,20 +3381,20 @@
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="20">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="C17" s="30"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C17" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D17" s="31">
-        <v>0.125</v>
-      </c>
-      <c r="E17" s="30">
-        <v>9.7222222222222224E-2</v>
-      </c>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
@@ -3632,7 +3405,7 @@
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="37" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="20">
@@ -3654,18 +3427,18 @@
       <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="37" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="20">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="D19" s="31">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
@@ -3676,20 +3449,18 @@
       <c r="M19" s="30"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="37" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="20">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="31"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="30">
-        <v>6.25E-2</v>
-      </c>
+      <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
@@ -3698,20 +3469,18 @@
       <c r="M20" s="30"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="20">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="31"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="30">
-        <v>6.25E-2</v>
-      </c>
+      <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
@@ -3720,19 +3489,17 @@
       <c r="M21" s="30"/>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="20">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="31"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="30">
-        <v>0.125</v>
-      </c>
+      <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -3742,16 +3509,16 @@
       <c r="M22" s="30"/>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="20">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="31">
-        <v>4.1666666666666664E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -3764,16 +3531,16 @@
       <c r="M23" s="30"/>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="20">
         <f>SUM(C24:H24)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="31">
-        <v>4.1666666666666664E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -3786,20 +3553,20 @@
       <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="20">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
+      <c r="D25" s="31">
+        <v>1.7361111111111112E-2</v>
+      </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="30">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -3808,7 +3575,7 @@
       <c r="M25" s="30"/>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="20">
@@ -3828,21 +3595,19 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="37" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="20">
         <f>SUM(C27:H27)</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="30">
-        <v>0.125</v>
-      </c>
+      <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
@@ -3850,19 +3615,17 @@
       <c r="M27" s="30"/>
     </row>
     <row r="28" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="20">
         <f>SUM(C28:H28)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -3872,18 +3635,18 @@
       <c r="M28" s="30"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="20">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="30">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D29" s="31">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
@@ -3899,41 +3662,23 @@
       </c>
       <c r="B30" s="20">
         <f>SUM(C30:M30)</f>
-        <v>1.9444444444444442</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C30" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D30" s="31">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="E30" s="30">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F30" s="30">
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="G30" s="30">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="H30" s="30">
-        <v>0.125</v>
-      </c>
-      <c r="I30" s="30">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="J30" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="K30" s="30">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="L30" s="30">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="M30" s="30">
-        <v>0.25</v>
-      </c>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
     </row>
     <row r="31" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
@@ -3941,19 +3686,19 @@
       </c>
       <c r="B31" s="24">
         <f>SUM(B32:B34)</f>
-        <v>0.60416666666666674</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="40"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="44"/>
     </row>
     <row r="32" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
@@ -3961,24 +3706,16 @@
       </c>
       <c r="B32" s="23">
         <f>SUM(C32:M32)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="31">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E32" s="30">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F32" s="30">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G32" s="30">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="H32" s="30">
-        <v>1.3888888888888888E-2</v>
-      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
@@ -3991,39 +3728,21 @@
       </c>
       <c r="B33" s="23">
         <f>SUM(C33:M33)</f>
-        <v>0.19444444444444445</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="31">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E33" s="30">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F33" s="30">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="G33" s="30">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="H33" s="30">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="I33" s="30">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="J33" s="30">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="K33" s="30">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="L33" s="30">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="M33" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
       <c r="XFD33" s="30"/>
     </row>
     <row r="34" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4032,83 +3751,69 @@
       </c>
       <c r="B34" s="32">
         <f>SUM(C34:M34)</f>
-        <v>0.3263888888888889</v>
+        <v>0</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="31"/>
       <c r="E34" s="30"/>
-      <c r="F34" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="F34" s="30"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="30">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="I34" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J34" s="30">
-        <v>6.25E-2</v>
-      </c>
-      <c r="K34" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="L34" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M34" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
       <c r="N34" s="27"/>
     </row>
     <row r="35" spans="1:15 16384:16384" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="33">
         <f>SUM(B31,B13,B8,B6)</f>
-        <v>3.6840277777777777</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C35" s="34">
-        <f>SUM(C7:C7,C9:C12,C14:C30,C32:C34)</f>
-        <v>0.35069444444444436</v>
+        <f t="shared" ref="C35:M35" si="1">SUM(C7:C7,C9:C12,C14:C30,C32:C34)</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D35" s="34">
         <f>SUM(D7:D7,D9:D12,D14:D30,D32:D34)</f>
-        <v>0.33333333333333331</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="E35" s="34">
-        <f>SUM(E7:E7,E9:E12,E14:E30,E32:E34)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F35" s="34">
-        <f>SUM(F7:F7,F9:F12,F14:F30,F32:F34)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G35" s="34">
-        <f>SUM(G7:G7,G9:G12,G14:G30,G32:G34)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H35" s="34">
-        <f>SUM(H7:H7,H9:H12,H14:H30,H32:H34)</f>
-        <v>0.33333333333333337</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I35" s="34">
-        <f>SUM(I7:I7,I9:I12,I14:I30,I32:I34)</f>
-        <v>0.33333333333333337</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J35" s="34">
-        <f>SUM(J7:J7,J9:J12,J14:J30,J32:J34)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K35" s="34">
-        <f>SUM(K7:K7,K9:K12,K14:K30,K32:K34)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L35" s="34">
-        <f>SUM(L7:L7,L9:L12,L14:L30,L32:L34)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M35" s="34">
-        <f>SUM(M7:M7,M9:M12,M14:M30,M32:M34)</f>
-        <v>0.33333333333333337</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>

--- a/Documentations/Planning.xlsx
+++ b/Documentations/Planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D044367-6C22-4EEB-88CB-BB7064C7983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F599C216-962E-4CBA-A164-5E4693D761CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning Prévisionnel" sheetId="17" r:id="rId1"/>
@@ -2133,9 +2133,9 @@
   </sheetPr>
   <dimension ref="A1:XFD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3049,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B13" s="19">
         <f>SUM(B14:B30)</f>
-        <v>0.46180555555555552</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B17" s="20">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C17" s="30">
         <v>4.1666666666666664E-2</v>
@@ -3394,7 +3394,9 @@
       <c r="D17" s="31">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="30">
+        <v>5.5555555555555552E-2</v>
+      </c>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
@@ -3494,11 +3496,13 @@
       </c>
       <c r="B22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="30"/>
+      <c r="E22" s="30">
+        <v>6.25E-2</v>
+      </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
@@ -3580,11 +3584,13 @@
       </c>
       <c r="B26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="31"/>
-      <c r="E26" s="30"/>
+      <c r="E26" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
@@ -3620,11 +3626,13 @@
       </c>
       <c r="B28" s="20">
         <f>SUM(C28:H28)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
-      <c r="E28" s="30"/>
+      <c r="E28" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
@@ -3640,13 +3648,15 @@
       </c>
       <c r="B29" s="20">
         <f t="shared" si="0"/>
-        <v>6.9444444444444434E-2</v>
+        <v>9.0277777777777762E-2</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="31">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
@@ -3662,7 +3672,7 @@
       </c>
       <c r="B30" s="20">
         <f>SUM(C30:M30)</f>
-        <v>0.1388888888888889</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="C30" s="30">
         <v>8.3333333333333329E-2</v>
@@ -3670,7 +3680,9 @@
       <c r="D30" s="31">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -3686,7 +3698,7 @@
       </c>
       <c r="B31" s="24">
         <f>SUM(B32:B34)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>7.6388888888888881E-2</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -3706,13 +3718,15 @@
       </c>
       <c r="B32" s="23">
         <f>SUM(C32:M32)</f>
-        <v>1.3888888888888888E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="31">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="30">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
@@ -3728,13 +3742,15 @@
       </c>
       <c r="B33" s="23">
         <f>SUM(C33:M33)</f>
-        <v>1.3888888888888888E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="31">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="30">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
@@ -3751,11 +3767,13 @@
       </c>
       <c r="B34" s="32">
         <f>SUM(C34:M34)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="31"/>
-      <c r="E34" s="30"/>
+      <c r="E34" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
@@ -3769,7 +3787,7 @@
     <row r="35" spans="1:15 16384:16384" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="33">
         <f>SUM(B31,B13,B8,B6)</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="C35" s="34">
         <f t="shared" ref="C35:M35" si="1">SUM(C7:C7,C9:C12,C14:C30,C32:C34)</f>
@@ -3781,7 +3799,7 @@
       </c>
       <c r="E35" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="1"/>

--- a/Documentations/Planning.xlsx
+++ b/Documentations/Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F599C216-962E-4CBA-A164-5E4693D761CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECD8113-7454-467F-A00E-0242D0E4F320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,6 @@
     <definedName name="task_start" localSheetId="0">'Planning Prévisionnel'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2135,7 +2134,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3048,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3300,7 +3299,7 @@
       </c>
       <c r="B13" s="19">
         <f>SUM(B14:B30)</f>
-        <v>0.74652777777777779</v>
+        <v>1.0381944444444444</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
@@ -3386,7 +3385,7 @@
       </c>
       <c r="B17" s="20">
         <f t="shared" si="0"/>
-        <v>0.1388888888888889</v>
+        <v>0.24305555555555558</v>
       </c>
       <c r="C17" s="30">
         <v>4.1666666666666664E-2</v>
@@ -3397,7 +3396,9 @@
       <c r="E17" s="30">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="30">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -3434,14 +3435,16 @@
       </c>
       <c r="B19" s="20">
         <f t="shared" si="0"/>
-        <v>3.4722222222222224E-2</v>
+        <v>7.2222222222222215E-2</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="31">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="F19" s="30">
+        <v>3.7499999999999999E-2</v>
+      </c>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -3456,12 +3459,14 @@
       </c>
       <c r="B20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="31"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="F20" s="30">
+        <v>7.6388888888888886E-3</v>
+      </c>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -3476,12 +3481,14 @@
       </c>
       <c r="B21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5972222222222224E-2</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="31"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="F21" s="30">
+        <v>1.5972222222222224E-2</v>
+      </c>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -3496,14 +3503,16 @@
       </c>
       <c r="B22" s="20">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="31"/>
       <c r="E22" s="30">
         <v>6.25E-2</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="30">
+        <v>3.4722222222222224E-2</v>
+      </c>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -3648,7 +3657,7 @@
       </c>
       <c r="B29" s="20">
         <f t="shared" si="0"/>
-        <v>9.0277777777777762E-2</v>
+        <v>0.12499999999999999</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="31">
@@ -3657,7 +3666,9 @@
       <c r="E29" s="30">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F29" s="30"/>
+      <c r="F29" s="30">
+        <v>3.4722222222222224E-2</v>
+      </c>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -3672,7 +3683,7 @@
       </c>
       <c r="B30" s="20">
         <f>SUM(C30:M30)</f>
-        <v>0.22222222222222221</v>
+        <v>0.27916666666666667</v>
       </c>
       <c r="C30" s="30">
         <v>8.3333333333333329E-2</v>
@@ -3683,7 +3694,9 @@
       <c r="E30" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F30" s="30"/>
+      <c r="F30" s="30">
+        <v>5.6944444444444443E-2</v>
+      </c>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
@@ -3698,7 +3711,7 @@
       </c>
       <c r="B31" s="24">
         <f>SUM(B32:B34)</f>
-        <v>7.6388888888888881E-2</v>
+        <v>0.11805555555555555</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -3718,7 +3731,7 @@
       </c>
       <c r="B32" s="23">
         <f>SUM(C32:M32)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="31">
@@ -3727,7 +3740,9 @@
       <c r="E32" s="30">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F32" s="30"/>
+      <c r="F32" s="30">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
@@ -3742,7 +3757,7 @@
       </c>
       <c r="B33" s="23">
         <f>SUM(C33:M33)</f>
-        <v>2.7777777777777776E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="31">
@@ -3751,7 +3766,9 @@
       <c r="E33" s="30">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F33" s="30"/>
+      <c r="F33" s="30">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -3767,14 +3784,16 @@
       </c>
       <c r="B34" s="32">
         <f>SUM(C34:M34)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="31"/>
       <c r="E34" s="30">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F34" s="30"/>
+      <c r="F34" s="30">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
@@ -3787,7 +3806,7 @@
     <row r="35" spans="1:15 16384:16384" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="33">
         <f>SUM(B31,B13,B8,B6)</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="C35" s="34">
         <f t="shared" ref="C35:M35" si="1">SUM(C7:C7,C9:C12,C14:C30,C32:C34)</f>
@@ -3803,7 +3822,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="1"/>
@@ -3900,35 +3919,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4216,27 +4206,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4255,4 +4254,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentations/Planning.xlsx
+++ b/Documentations/Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECD8113-7454-467F-A00E-0242D0E4F320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C11193E-2D49-4A2E-B58B-E4A62D02B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Temps nécessaire</t>
   </si>
@@ -474,6 +474,58 @@
       <t>Détails des fiches de jeux</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recherche de fiches</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">S18 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mot de passe oublié</t>
+    </r>
+  </si>
+  <si>
+    <t>Légende :</t>
+  </si>
+  <si>
+    <t>Tâches non prévus</t>
+  </si>
 </sst>
 </file>
 
@@ -653,7 +705,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,6 +966,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,7 +1394,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1486,6 +1544,12 @@
     </xf>
     <xf numFmtId="170" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -2133,8 +2197,8 @@
   <dimension ref="A1:XFD35"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3044,11 +3108,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFD35"/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3298,8 +3362,8 @@
         <v>4</v>
       </c>
       <c r="B13" s="19">
-        <f>SUM(B14:B30)</f>
-        <v>1.0381944444444444</v>
+        <f>SUM(B14:B31)</f>
+        <v>1.3298611111111112</v>
       </c>
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
@@ -3385,7 +3449,7 @@
       </c>
       <c r="B17" s="20">
         <f t="shared" si="0"/>
-        <v>0.24305555555555558</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="C17" s="30">
         <v>4.1666666666666664E-2</v>
@@ -3399,7 +3463,9 @@
       <c r="F17" s="30">
         <v>0.10416666666666667</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="30">
+        <v>9.0277777777777776E-2</v>
+      </c>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
@@ -3459,7 +3525,7 @@
       </c>
       <c r="B20" s="20">
         <f t="shared" si="0"/>
-        <v>7.6388888888888886E-3</v>
+        <v>2.8472222222222222E-2</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="31"/>
@@ -3467,7 +3533,9 @@
       <c r="F20" s="30">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
@@ -3477,7 +3545,7 @@
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B21" s="20">
         <f t="shared" si="0"/>
@@ -3615,13 +3683,15 @@
       </c>
       <c r="B27" s="20">
         <f>SUM(C27:H27)</f>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="G27" s="30">
+        <v>5.5555555555555552E-2</v>
+      </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
@@ -3678,26 +3748,19 @@
       <c r="M29" s="30"/>
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>10</v>
+      <c r="A30" s="53" t="s">
+        <v>36</v>
       </c>
       <c r="B30" s="20">
-        <f>SUM(C30:M30)</f>
-        <v>0.27916666666666667</v>
-      </c>
-      <c r="C30" s="30">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D30" s="31">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="E30" s="30">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F30" s="30">
-        <v>5.6944444444444443E-2</v>
-      </c>
-      <c r="G30" s="30"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
@@ -3706,58 +3769,62 @@
       <c r="M30" s="30"/>
     </row>
     <row r="31" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="20">
+        <f>SUM(C31:M31)</f>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="C31" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D31" s="31">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E31" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F31" s="30">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="G31" s="30">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+    </row>
+    <row r="32" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="24">
-        <f>SUM(B32:B34)</f>
-        <v>0.11805555555555555</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="44"/>
-    </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="23">
-        <f>SUM(C32:M32)</f>
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E32" s="30">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F32" s="30">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
+      <c r="B32" s="24">
+        <f>SUM(B33:B35)</f>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
     </row>
     <row r="33" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="23">
         <f>SUM(C33:M33)</f>
-        <v>3.4722222222222224E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="31">
@@ -3769,96 +3836,139 @@
       <c r="F33" s="30">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="30">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
-      <c r="XFD33" s="30"/>
     </row>
     <row r="34" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="32">
+        <v>12</v>
+      </c>
+      <c r="B34" s="23">
         <f>SUM(C34:M34)</f>
-        <v>4.8611111111111105E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
+      <c r="D34" s="31">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="E34" s="30">
-        <v>2.0833333333333332E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="F34" s="30">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="G34" s="30"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G34" s="30">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
-      <c r="N34" s="27"/>
-    </row>
-    <row r="35" spans="1:15 16384:16384" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="33">
-        <f>SUM(B31,B13,B8,B6)</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="C35" s="34">
-        <f t="shared" ref="C35:M35" si="1">SUM(C7:C7,C9:C12,C14:C30,C32:C34)</f>
+      <c r="XFD34" s="30"/>
+    </row>
+    <row r="35" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="32">
+        <f>SUM(C35:M35)</f>
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F35" s="30">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G35" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="27"/>
+    </row>
+    <row r="36" spans="1:15 16384:16384" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="33">
+        <f>SUM(B32,B13,B8,B6)</f>
+        <v>1.6597222222222221</v>
+      </c>
+      <c r="C36" s="34">
+        <f>SUM(C7:C7,C9:C12,C14:C31,C33:C35)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D35" s="34">
-        <f>SUM(D7:D7,D9:D12,D14:D30,D32:D34)</f>
+      <c r="D36" s="34">
+        <f>SUM(D7:D7,D9:D12,D14:D31,D33:D35)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="E35" s="34">
-        <f t="shared" si="1"/>
+      <c r="E36" s="34">
+        <f>SUM(E7:E7,E9:E12,E14:E31,E33:E35)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F35" s="34">
-        <f t="shared" si="1"/>
+      <c r="F36" s="34">
+        <f>SUM(F7:F7,F9:F12,F14:F31,F33:F35)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G35" s="34">
-        <f t="shared" si="1"/>
+      <c r="G36" s="34">
+        <f>SUM(G7:G7,G9:G12,G14:G31,G33:G35)</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="H36" s="34">
+        <f>SUM(H7:H7,H9:H12,H14:H31,H33:H35)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="34">
-        <f t="shared" si="1"/>
+      <c r="I36" s="34">
+        <f>SUM(I7:I7,I9:I12,I14:I31,I33:I35)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="34">
-        <f t="shared" si="1"/>
+      <c r="J36" s="34">
+        <f>SUM(J7:J7,J9:J12,J14:J31,J33:J35)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="34">
-        <f t="shared" si="1"/>
+      <c r="K36" s="34">
+        <f>SUM(K7:K7,K9:K12,K14:K31,K33:K35)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="34">
-        <f t="shared" si="1"/>
+      <c r="L36" s="34">
+        <f>SUM(L7:L7,L9:L12,L14:L31,L33:L35)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="34">
-        <f t="shared" si="1"/>
+      <c r="M36" s="34">
+        <f>SUM(M7:M7,M9:M12,M14:M31,M33:M35)</f>
         <v>0</v>
       </c>
-      <c r="M35" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+    </row>
+    <row r="38" spans="1:15 16384:16384" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15 16384:16384" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="C32:M32"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="C8:M8"/>
     <mergeCell ref="C13:M13"/>
@@ -3874,7 +3984,7 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B35">
+  <conditionalFormatting sqref="B36">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>88/24</formula>
     </cfRule>
@@ -3889,24 +3999,24 @@
       <formula>LEN(TRIM(C9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:M30">
+  <conditionalFormatting sqref="C14:M31">
     <cfRule type="notContainsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(C14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:M34">
+  <conditionalFormatting sqref="C33:M35">
     <cfRule type="notContainsBlanks" dxfId="2" priority="7">
-      <formula>LEN(TRIM(C32))&gt;0</formula>
+      <formula>LEN(TRIM(C33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:M35">
+  <conditionalFormatting sqref="C36:M36">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="XFD33">
+  <conditionalFormatting sqref="XFD34">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(XFD33))&gt;0</formula>
+      <formula>LEN(TRIM(XFD34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -3919,6 +4029,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4206,36 +4345,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4254,24 +4384,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentations/Planning.xlsx
+++ b/Documentations/Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C11193E-2D49-4A2E-B58B-E4A62D02B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8964820-6FA4-42D5-AE5A-2B4E6AFB59EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1503,6 +1503,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1544,12 +1550,6 @@
     </xf>
     <xf numFmtId="170" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -2220,14 +2220,14 @@
       <c r="B1" s="1"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
@@ -2240,37 +2240,37 @@
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
-      <c r="C4" s="50">
+      <c r="C4" s="52">
         <v>45043</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="47">
         <v>45048</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="47">
         <v>45049</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="47">
         <v>45050</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="47">
         <v>45054</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="47">
         <v>45055</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="47">
         <v>45056</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="47">
         <v>45057</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="47">
         <v>45061</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="47">
         <v>45062</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="47">
         <v>45063</v>
       </c>
     </row>
@@ -2281,17 +2281,17 @@
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -2301,17 +2301,17 @@
         <f>SUM(B7:B7)</f>
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -2343,17 +2343,17 @@
         <f>SUM(B9:B12)</f>
         <v>0.1736111111111111</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -2451,17 +2451,17 @@
         <f>SUM(B14:B30)</f>
         <v>2.8819444444444446</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
@@ -2867,17 +2867,17 @@
         <f>SUM(B32:B34)</f>
         <v>0.60416666666666674</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="46"/>
     </row>
     <row r="32" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
@@ -3110,9 +3110,9 @@
   </sheetPr>
   <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3134,14 +3134,14 @@
       <c r="B1" s="1"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
@@ -3154,37 +3154,37 @@
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
-      <c r="C4" s="50">
+      <c r="C4" s="52">
         <v>45043</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="47">
         <v>45048</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="47">
         <v>45049</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="47">
         <v>45050</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="47">
         <v>45054</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="47">
         <v>45055</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="47">
         <v>45056</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="47">
         <v>45057</v>
       </c>
-      <c r="K4" s="45">
+      <c r="K4" s="47">
         <v>45061</v>
       </c>
-      <c r="L4" s="45">
+      <c r="L4" s="47">
         <v>45062</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="47">
         <v>45063</v>
       </c>
     </row>
@@ -3195,17 +3195,17 @@
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -3215,17 +3215,17 @@
         <f>SUM(B7:B7)</f>
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -3257,17 +3257,17 @@
         <f>SUM(B9:B12)</f>
         <v>0.1701388888888889</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -3363,19 +3363,19 @@
       </c>
       <c r="B13" s="19">
         <f>SUM(B14:B31)</f>
-        <v>1.3298611111111112</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+        <v>1.5590277777777777</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B17" s="20">
         <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
+        <v>0.42708333333333337</v>
       </c>
       <c r="C17" s="30">
         <v>4.1666666666666664E-2</v>
@@ -3466,7 +3466,9 @@
       <c r="G17" s="30">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="H17" s="30">
+        <v>9.375E-2</v>
+      </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
@@ -3748,7 +3750,7 @@
       <c r="M29" s="30"/>
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="39" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="20">
@@ -3761,7 +3763,9 @@
       <c r="G30" s="30">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="H30" s="30"/>
+      <c r="H30" s="30">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
@@ -3774,7 +3778,7 @@
       </c>
       <c r="B31" s="20">
         <f>SUM(C31:M31)</f>
-        <v>0.38333333333333336</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="C31" s="30">
         <v>8.3333333333333329E-2</v>
@@ -3791,7 +3795,9 @@
       <c r="G31" s="30">
         <v>0.10416666666666667</v>
       </c>
-      <c r="H31" s="30"/>
+      <c r="H31" s="30">
+        <v>0.13541666666666666</v>
+      </c>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
@@ -3804,19 +3810,19 @@
       </c>
       <c r="B32" s="24">
         <f>SUM(B33:B35)</f>
-        <v>0.15277777777777779</v>
-      </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="46"/>
     </row>
     <row r="33" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
@@ -3824,7 +3830,7 @@
       </c>
       <c r="B33" s="23">
         <f>SUM(C33:M33)</f>
-        <v>4.1666666666666671E-2</v>
+        <v>5.5555555555555559E-2</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="31">
@@ -3839,7 +3845,9 @@
       <c r="G33" s="30">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H33" s="30"/>
+      <c r="H33" s="30">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
@@ -3852,7 +3860,7 @@
       </c>
       <c r="B34" s="23">
         <f>SUM(C34:M34)</f>
-        <v>4.1666666666666671E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="31">
@@ -3867,7 +3875,9 @@
       <c r="G34" s="30">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="H34" s="30"/>
+      <c r="H34" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
@@ -3881,7 +3891,7 @@
       </c>
       <c r="B35" s="32">
         <f>SUM(C35:M35)</f>
-        <v>6.9444444444444434E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="31"/>
@@ -3894,7 +3904,9 @@
       <c r="G35" s="30">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
@@ -3905,50 +3917,50 @@
     <row r="36" spans="1:15 16384:16384" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="33">
         <f>SUM(B32,B13,B8,B6)</f>
-        <v>1.6597222222222221</v>
+        <v>1.9652777777777777</v>
       </c>
       <c r="C36" s="34">
-        <f>SUM(C7:C7,C9:C12,C14:C31,C33:C35)</f>
+        <f t="shared" ref="C36:M36" si="1">SUM(C7:C7,C9:C12,C14:C31,C33:C35)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D36" s="34">
-        <f>SUM(D7:D7,D9:D12,D14:D31,D33:D35)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="E36" s="34">
-        <f>SUM(E7:E7,E9:E12,E14:E31,E33:E35)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F36" s="34">
-        <f>SUM(F7:F7,F9:F12,F14:F31,F33:F35)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G36" s="34">
-        <f>SUM(G7:G7,G9:G12,G14:G31,G33:G35)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="H36" s="34">
-        <f>SUM(H7:H7,H9:H12,H14:H31,H33:H35)</f>
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I36" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="34">
-        <f>SUM(I7:I7,I9:I12,I14:I31,I33:I35)</f>
+      <c r="J36" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="34">
-        <f>SUM(J7:J7,J9:J12,J14:J31,J33:J35)</f>
+      <c r="K36" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K36" s="34">
-        <f>SUM(K7:K7,K9:K12,K14:K31,K33:K35)</f>
+      <c r="L36" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L36" s="34">
-        <f>SUM(L7:L7,L9:L12,L14:L31,L33:L35)</f>
-        <v>0</v>
-      </c>
       <c r="M36" s="34">
-        <f>SUM(M7:M7,M9:M12,M14:M31,M33:M35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N36" s="26"/>
@@ -3963,7 +3975,7 @@
       <c r="C39" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="52"/>
+      <c r="D39" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4029,35 +4041,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4345,27 +4328,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4384,4 +4376,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentations/Planning.xlsx
+++ b/Documentations/Planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8964820-6FA4-42D5-AE5A-2B4E6AFB59EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463F42D4-B77D-4FF5-AE2E-A9156421846C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning Prévisionnel" sheetId="17" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Temps nécessaire</t>
   </si>
@@ -525,6 +525,29 @@
   </si>
   <si>
     <t>Tâches non prévus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pagination</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2197,8 +2220,8 @@
   <dimension ref="A1:XFD35"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3108,11 +3131,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFD39"/>
+  <dimension ref="A1:XFD40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32:M32"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3362,8 +3385,8 @@
         <v>4</v>
       </c>
       <c r="B13" s="19">
-        <f>SUM(B14:B31)</f>
-        <v>1.5590277777777777</v>
+        <f>SUM(B14:B32)</f>
+        <v>1.7256944444444444</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -3469,7 +3492,9 @@
       <c r="H17" s="30">
         <v>9.375E-2</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="30">
+        <v>3.4722222222222224E-2</v>
+      </c>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
@@ -3773,90 +3798,83 @@
       <c r="M30" s="30"/>
     </row>
     <row r="31" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>10</v>
+      <c r="A31" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="B31" s="20">
-        <f>SUM(C31:M31)</f>
-        <v>0.51875000000000004</v>
-      </c>
-      <c r="C31" s="30">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D31" s="31">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="E31" s="30">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F31" s="30">
-        <v>5.6944444444444443E-2</v>
-      </c>
-      <c r="G31" s="30">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="H31" s="30">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="I31" s="30"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="20">
+        <f>SUM(C32:M32)</f>
+        <v>0.64375000000000004</v>
+      </c>
+      <c r="C32" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D32" s="31">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E32" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F32" s="30">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="G32" s="30">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="H32" s="30">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="I32" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+    </row>
+    <row r="33" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="24">
-        <f>SUM(B33:B35)</f>
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="46"/>
-    </row>
-    <row r="33" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="23">
-        <f>SUM(C33:M33)</f>
-        <v>5.5555555555555559E-2</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E33" s="30">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F33" s="30">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="G33" s="30">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="H33" s="30">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="B33" s="24">
+        <f>SUM(B34:B36)</f>
+        <v>0.36111111111111105</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="46"/>
     </row>
     <row r="34" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="23">
         <f>SUM(C34:M34)</f>
@@ -3876,111 +3894,167 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="H34" s="30">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="I34" s="30"/>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I34" s="30">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
-      <c r="XFD34" s="30"/>
     </row>
     <row r="35" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="32">
+        <v>12</v>
+      </c>
+      <c r="B35" s="23">
         <f>SUM(C35:M35)</f>
-        <v>0.1111111111111111</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
+      <c r="D35" s="31">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="E35" s="30">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F35" s="30">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G35" s="30">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H35" s="30">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F35" s="30">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="G35" s="30">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="H35" s="30">
+      <c r="I35" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
-      <c r="N35" s="27"/>
-    </row>
-    <row r="36" spans="1:15 16384:16384" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="33">
-        <f>SUM(B32,B13,B8,B6)</f>
-        <v>1.9652777777777777</v>
-      </c>
-      <c r="C36" s="34">
-        <f t="shared" ref="C36:M36" si="1">SUM(C7:C7,C9:C12,C14:C31,C33:C35)</f>
+      <c r="XFD35" s="30"/>
+    </row>
+    <row r="36" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="32">
+        <f>SUM(C36:M36)</f>
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F36" s="30">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G36" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H36" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I36" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="27"/>
+    </row>
+    <row r="37" spans="1:15 16384:16384" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="33">
+        <f>SUM(B33,B13,B8,B6)</f>
+        <v>2.2638888888888888</v>
+      </c>
+      <c r="C37" s="34">
+        <f>SUM(C7:C7,C9:C12,C14:C32,C34:C36)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D36" s="34">
-        <f t="shared" si="1"/>
+      <c r="D37" s="34">
+        <f>SUM(D7:D7,D9:D12,D14:D32,D34:D36)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="E36" s="34">
-        <f t="shared" si="1"/>
+      <c r="E37" s="34">
+        <f>SUM(E7:E7,E9:E12,E14:E32,E34:E36)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F36" s="34">
-        <f t="shared" si="1"/>
+      <c r="F37" s="34">
+        <f>SUM(F7:F7,F9:F12,F14:F32,F34:F36)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G36" s="34">
-        <f t="shared" si="1"/>
+      <c r="G37" s="34">
+        <f>SUM(G7:G7,G9:G12,G14:G32,G34:G36)</f>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H36" s="34">
-        <f t="shared" si="1"/>
+      <c r="H37" s="34">
+        <f>SUM(H7:H7,H9:H12,H14:H32,H34:H36)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I36" s="34">
-        <f t="shared" si="1"/>
+      <c r="I37" s="34">
+        <f>SUM(I7:I7,I9:I12,I14:I32,I34:I36)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J37" s="34">
+        <f>SUM(J7:J7,J9:J12,J14:J32,J34:J36)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="34">
-        <f t="shared" si="1"/>
+      <c r="K37" s="34">
+        <f>SUM(K7:K7,K9:K12,K14:K32,K34:K36)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="34">
-        <f t="shared" si="1"/>
+      <c r="L37" s="34">
+        <f>SUM(L7:L7,L9:L12,L14:L32,L34:L36)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="34">
-        <f t="shared" si="1"/>
+      <c r="M37" s="34">
+        <f>SUM(M7:M7,M9:M12,M14:M32,M34:M36)</f>
         <v>0</v>
       </c>
-      <c r="M36" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-    </row>
-    <row r="38" spans="1:15 16384:16384" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+    </row>
+    <row r="39" spans="1:15 16384:16384" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:15 16384:16384" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+    </row>
+    <row r="40" spans="1:15 16384:16384" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="C32:M32"/>
+    <mergeCell ref="C33:M33"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="C8:M8"/>
     <mergeCell ref="C13:M13"/>
@@ -3996,7 +4070,7 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B36">
+  <conditionalFormatting sqref="B37">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>88/24</formula>
     </cfRule>
@@ -4011,24 +4085,24 @@
       <formula>LEN(TRIM(C9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:M31">
+  <conditionalFormatting sqref="C14:M32">
     <cfRule type="notContainsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(C14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:M35">
+  <conditionalFormatting sqref="C34:M36">
     <cfRule type="notContainsBlanks" dxfId="2" priority="7">
-      <formula>LEN(TRIM(C33))&gt;0</formula>
+      <formula>LEN(TRIM(C34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:M36">
+  <conditionalFormatting sqref="C37:M37">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="XFD34">
+  <conditionalFormatting sqref="XFD35">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(XFD34))&gt;0</formula>
+      <formula>LEN(TRIM(XFD35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -4041,6 +4115,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4328,36 +4431,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4376,24 +4470,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentations/Planning.xlsx
+++ b/Documentations/Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463F42D4-B77D-4FF5-AE2E-A9156421846C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56681C5A-89BD-4C9E-9F32-08BFF0CCDA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Temps nécessaire</t>
   </si>
@@ -546,7 +546,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Pagination</t>
+      <t xml:space="preserve"> Pagination page jeux</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pagination page gestion</t>
     </r>
   </si>
 </sst>
@@ -3131,11 +3154,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFD40"/>
+  <dimension ref="A1:XFD41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3385,8 +3408,8 @@
         <v>4</v>
       </c>
       <c r="B13" s="19">
-        <f>SUM(B14:B32)</f>
-        <v>1.7256944444444444</v>
+        <f>SUM(B14:B33)</f>
+        <v>2.0555555555555558</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -3405,7 +3428,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="20">
-        <f t="shared" ref="B14:B29" si="0">SUM(C14:H14)</f>
+        <f>SUM(C14:M14)</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C14" s="30">
@@ -3427,7 +3450,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B15:B33" si="0">SUM(C15:M15)</f>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C15" s="30">
@@ -3472,7 +3495,7 @@
       </c>
       <c r="B17" s="20">
         <f t="shared" si="0"/>
-        <v>0.42708333333333337</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="C17" s="30">
         <v>4.1666666666666664E-2</v>
@@ -3643,7 +3666,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="20">
-        <f>SUM(C24:H24)</f>
+        <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C24" s="30"/>
@@ -3709,7 +3732,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="20">
-        <f>SUM(C27:H27)</f>
+        <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C27" s="30"/>
@@ -3731,7 +3754,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="20">
-        <f>SUM(C28:H28)</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C28" s="30"/>
@@ -3779,7 +3802,8 @@
         <v>36</v>
       </c>
       <c r="B30" s="20">
-        <v>2.0833333333333332E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
@@ -3802,6 +3826,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="20">
+        <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C31" s="30"/>
@@ -3813,104 +3838,95 @@
       <c r="I31" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J31" s="30"/>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>10</v>
+      <c r="A32" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="B32" s="20">
-        <f>SUM(C32:M32)</f>
-        <v>0.64375000000000004</v>
-      </c>
-      <c r="C32" s="30">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D32" s="31">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="E32" s="30">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F32" s="30">
-        <v>5.6944444444444443E-2</v>
-      </c>
-      <c r="G32" s="30">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="H32" s="30">
+        <f t="shared" si="0"/>
         <v>0.13541666666666666</v>
       </c>
-      <c r="I32" s="30">
-        <v>0.125</v>
-      </c>
-      <c r="J32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30">
+        <v>0.13541666666666666</v>
+      </c>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
     </row>
     <row r="33" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="20">
+        <f t="shared" si="0"/>
+        <v>0.76875000000000004</v>
+      </c>
+      <c r="C33" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D33" s="31">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E33" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F33" s="30">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="G33" s="30">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="H33" s="30">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="I33" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="J33" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+    </row>
+    <row r="34" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="24">
-        <f>SUM(B34:B36)</f>
-        <v>0.36111111111111105</v>
-      </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="46"/>
-    </row>
-    <row r="34" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="23">
-        <f>SUM(C34:M34)</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E34" s="30">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F34" s="30">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="G34" s="30">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="H34" s="30">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="I34" s="30">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
+      <c r="B34" s="24">
+        <f>SUM(B35:B37)</f>
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="46"/>
     </row>
     <row r="35" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="23">
         <f>SUM(C35:M35)</f>
-        <v>0.10416666666666666</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="31">
@@ -3926,135 +3942,153 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="H35" s="30">
-        <v>2.0833333333333332E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="I35" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J35" s="30"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="J35" s="30">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
-      <c r="XFD35" s="30"/>
     </row>
     <row r="36" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="32">
+        <v>12</v>
+      </c>
+      <c r="B36" s="23">
         <f>SUM(C36:M36)</f>
-        <v>0.19444444444444442</v>
+        <v>0.12152777777777776</v>
       </c>
       <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
+      <c r="D36" s="31">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="E36" s="30">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F36" s="30">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G36" s="30">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H36" s="30">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F36" s="30">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="G36" s="30">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="H36" s="30">
+      <c r="I36" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I36" s="30">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J36" s="30"/>
+      <c r="J36" s="30">
+        <v>1.7361111111111112E-2</v>
+      </c>
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
-      <c r="N36" s="27"/>
-    </row>
-    <row r="37" spans="1:15 16384:16384" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="33">
-        <f>SUM(B33,B13,B8,B6)</f>
-        <v>2.2638888888888888</v>
-      </c>
-      <c r="C37" s="34">
-        <f>SUM(C7:C7,C9:C12,C14:C32,C34:C36)</f>
+      <c r="XFD36" s="30"/>
+    </row>
+    <row r="37" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="32">
+        <f>SUM(C37:M37)</f>
+        <v>0.23611111111111108</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F37" s="30">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G37" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H37" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I37" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J37" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="27"/>
+    </row>
+    <row r="38" spans="1:15 16384:16384" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="33">
+        <f>SUM(B34,B13,B8,B6)</f>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="C38" s="34">
+        <f>SUM(C7:C7,C9:C12,C14:C33,C35:C37)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D37" s="34">
-        <f>SUM(D7:D7,D9:D12,D14:D32,D34:D36)</f>
+      <c r="D38" s="34">
+        <f>SUM(D7:D7,D9:D12,D14:D33,D35:D37)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="E37" s="34">
-        <f>SUM(E7:E7,E9:E12,E14:E32,E34:E36)</f>
+      <c r="E38" s="34">
+        <f>SUM(E7:E7,E9:E12,E14:E33,E35:E37)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F37" s="34">
-        <f>SUM(F7:F7,F9:F12,F14:F32,F34:F36)</f>
+      <c r="F38" s="34">
+        <f>SUM(F7:F7,F9:F12,F14:F33,F35:F37)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G37" s="34">
-        <f>SUM(G7:G7,G9:G12,G14:G32,G34:G36)</f>
+      <c r="G38" s="34">
+        <f>SUM(G7:G7,G9:G12,G14:G33,G35:G37)</f>
         <v>0.33333333333333326</v>
       </c>
-      <c r="H37" s="34">
-        <f>SUM(H7:H7,H9:H12,H14:H32,H34:H36)</f>
+      <c r="H38" s="34">
+        <f>SUM(H7:H7,H9:H12,H14:H33,H35:H37)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I37" s="34">
-        <f>SUM(I7:I7,I9:I12,I14:I32,I34:I36)</f>
+      <c r="I38" s="34">
+        <f>SUM(I7:I7,I9:I12,I14:I33,I35:I37)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J37" s="34">
-        <f>SUM(J7:J7,J9:J12,J14:J32,J34:J36)</f>
+      <c r="J38" s="34">
+        <f>SUM(J7:J7,J9:J12,J14:J33,J35:J37)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K38" s="34">
+        <f>SUM(K7:K7,K9:K12,K14:K33,K35:K37)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="34">
-        <f>SUM(K7:K7,K9:K12,K14:K32,K34:K36)</f>
+      <c r="L38" s="34">
+        <f>SUM(L7:L7,L9:L12,L14:L33,L35:L37)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="34">
-        <f>SUM(L7:L7,L9:L12,L14:L32,L34:L36)</f>
+      <c r="M38" s="34">
+        <f>SUM(M7:M7,M9:M12,M14:M33,M35:M37)</f>
         <v>0</v>
       </c>
-      <c r="M37" s="34">
-        <f>SUM(M7:M7,M9:M12,M14:M32,M34:M36)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-    </row>
-    <row r="39" spans="1:15 16384:16384" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+    </row>
+    <row r="40" spans="1:15 16384:16384" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-    </row>
-    <row r="40" spans="1:15 16384:16384" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="25" t="s">
+    </row>
+    <row r="41" spans="1:15 16384:16384" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
+      <c r="D41" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C34:M34"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="C8:M8"/>
     <mergeCell ref="C13:M13"/>
@@ -4070,7 +4104,7 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B38">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>88/24</formula>
     </cfRule>
@@ -4085,24 +4119,24 @@
       <formula>LEN(TRIM(C9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:M32">
+  <conditionalFormatting sqref="C14:M30 C31:I31 K31:M31 C32:M33">
     <cfRule type="notContainsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(C14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:M36">
+  <conditionalFormatting sqref="C35:M37">
     <cfRule type="notContainsBlanks" dxfId="2" priority="7">
-      <formula>LEN(TRIM(C34))&gt;0</formula>
+      <formula>LEN(TRIM(C35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:M37">
+  <conditionalFormatting sqref="C38:M38">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="XFD35">
+  <conditionalFormatting sqref="XFD36">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(XFD35))&gt;0</formula>
+      <formula>LEN(TRIM(XFD36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -4115,35 +4149,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4431,27 +4436,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4470,4 +4484,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentations/Planning.xlsx
+++ b/Documentations/Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56681C5A-89BD-4C9E-9F32-08BFF0CCDA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A3D3F7-0A89-4F90-82A1-C5D752185391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,7 @@
     <definedName name="task_start" localSheetId="0">'Planning Prévisionnel'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2243,8 +2244,8 @@
   <dimension ref="A1:XFD35"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3156,16 +3157,16 @@
   </sheetPr>
   <dimension ref="A1:XFD41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="25" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="25" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="25" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="25" customWidth="1"/>
@@ -3409,7 +3410,7 @@
       </c>
       <c r="B13" s="19">
         <f>SUM(B14:B33)</f>
-        <v>2.0555555555555558</v>
+        <v>2.3055555555555558</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -3870,7 +3871,7 @@
       </c>
       <c r="B33" s="20">
         <f t="shared" si="0"/>
-        <v>0.76875000000000004</v>
+        <v>1.01875</v>
       </c>
       <c r="C33" s="30">
         <v>8.3333333333333329E-2</v>
@@ -3896,7 +3897,9 @@
       <c r="J33" s="30">
         <v>0.125</v>
       </c>
-      <c r="K33" s="30"/>
+      <c r="K33" s="30">
+        <v>0.25</v>
+      </c>
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
     </row>
@@ -3906,7 +3909,7 @@
       </c>
       <c r="B34" s="24">
         <f>SUM(B35:B37)</f>
-        <v>0.43402777777777773</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -3960,7 +3963,7 @@
       </c>
       <c r="B36" s="23">
         <f>SUM(C36:M36)</f>
-        <v>0.12152777777777776</v>
+        <v>0.16319444444444442</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="31">
@@ -3984,7 +3987,9 @@
       <c r="J36" s="30">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="K36" s="30"/>
+      <c r="K36" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
       <c r="XFD36" s="30"/>
@@ -3995,7 +4000,7 @@
       </c>
       <c r="B37" s="32">
         <f>SUM(C37:M37)</f>
-        <v>0.23611111111111108</v>
+        <v>0.27777777777777773</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="31"/>
@@ -4017,7 +4022,9 @@
       <c r="J37" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K37" s="30"/>
+      <c r="K37" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
       <c r="N37" s="27"/>
@@ -4025,50 +4032,50 @@
     <row r="38" spans="1:15 16384:16384" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="33">
         <f>SUM(B34,B13,B8,B6)</f>
-        <v>2.666666666666667</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="C38" s="34">
-        <f>SUM(C7:C7,C9:C12,C14:C33,C35:C37)</f>
+        <f t="shared" ref="C38:M38" si="1">SUM(C7:C7,C9:C12,C14:C33,C35:C37)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D38" s="34">
-        <f>SUM(D7:D7,D9:D12,D14:D33,D35:D37)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="E38" s="34">
-        <f>SUM(E7:E7,E9:E12,E14:E33,E35:E37)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F38" s="34">
-        <f>SUM(F7:F7,F9:F12,F14:F33,F35:F37)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G38" s="34">
-        <f>SUM(G7:G7,G9:G12,G14:G33,G35:G37)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="H38" s="34">
-        <f>SUM(H7:H7,H9:H12,H14:H33,H35:H37)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I38" s="34">
-        <f>SUM(I7:I7,I9:I12,I14:I33,I35:I37)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J38" s="34">
-        <f>SUM(J7:J7,J9:J12,J14:J33,J35:J37)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K38" s="34">
-        <f>SUM(K7:K7,K9:K12,K14:K33,K35:K37)</f>
+        <f t="shared" si="1"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="L38" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L38" s="34">
-        <f>SUM(L7:L7,L9:L12,L14:L33,L35:L37)</f>
-        <v>0</v>
-      </c>
       <c r="M38" s="34">
-        <f>SUM(M7:M7,M9:M12,M14:M33,M35:M37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N38" s="26"/>
